--- a/target/classes/com/testData/ItemDataList.xlsx
+++ b/target/classes/com/testData/ItemDataList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15045" windowHeight="1590" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15045" windowHeight="5010"/>
   </bookViews>
   <sheets>
     <sheet name="Item_data" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Category_data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M3"/>
+  <oleSize ref="G2:T16"/>
 </workbook>
 </file>
 
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +619,7 @@
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
@@ -705,7 +705,7 @@
         <v>54</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
         <v>30</v>
@@ -740,7 +740,7 @@
         <v>55</v>
       </c>
       <c r="K3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
         <v>31</v>
@@ -1023,7 +1023,7 @@
         <v>20</v>
       </c>
       <c r="L11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N11">
         <v>45</v>
@@ -1058,7 +1058,7 @@
         <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N12">
         <v>60</v>
@@ -1226,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1318,7 +1318,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1342,29 +1342,29 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>101</v>
+        <v>501</v>
       </c>
       <c r="B2" t="s">
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>102</v>
+        <v>502</v>
       </c>
       <c r="B3" t="s">
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>103</v>
+        <v>503</v>
       </c>
       <c r="B4" t="s">
         <v>32</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>104</v>
+        <v>504</v>
       </c>
       <c r="B5" t="s">
         <v>33</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>105</v>
+        <v>505</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>106</v>
+        <v>506</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>107</v>
+        <v>507</v>
       </c>
       <c r="B8" t="s">
         <v>36</v>
@@ -1419,7 +1419,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>108</v>
+        <v>508</v>
       </c>
       <c r="B9" t="s">
         <v>37</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>109</v>
+        <v>509</v>
       </c>
       <c r="B10" t="s">
         <v>38</v>

--- a/target/classes/com/testData/ItemDataList.xlsx
+++ b/target/classes/com/testData/ItemDataList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15045" windowHeight="5010"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14070" windowHeight="5235" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Item_data" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Category_data" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="G2:T16"/>
+  <oleSize ref="A1:K16"/>
 </workbook>
 </file>
 
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +619,7 @@
     <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="15.140625" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
     <col min="5" max="5" width="28.5703125" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
@@ -1020,10 +1020,10 @@
         <v>63</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N11">
         <v>45</v>
@@ -1227,7 +1227,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
